--- a/ONMATHLIMS/lims_app/static/download/send_sample.xlsx
+++ b/ONMATHLIMS/lims_app/static/download/send_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">样品名称</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所在地</t>
   </si>
   <si>
     <t xml:space="preserve">备注</t>
@@ -141,15 +144,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -177,6 +180,9 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
